--- a/后/api.xlsx
+++ b/后/api.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="178">
   <si>
     <t>地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,19 +541,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>uname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户是否已设置支付密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询所有用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getalluser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status/recvname/phone/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态/收货人姓名/手机号/详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateproduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称/商品描述/价格/库存/系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pname/pdesp/price/kucun/type/kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品更新2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类，可选{light,game,Thinkpad}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deluser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delproduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品更新3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadimage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回类型json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>注：请求地址以/api/ 开头，比如第一个实际地址为/api/gethot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询用户是否已设置支付密码</t>
+    <t>main/big/intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主图/大图/详情图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +725,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,14 +769,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -622,7 +778,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -645,19 +801,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -962,10 +1181,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G30"/>
+      <pane ySplit="960" topLeftCell="A27" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -981,35 +1201,35 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1142,10 +1362,10 @@
         <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>105</v>
@@ -1378,7 +1598,7 @@
     </row>
     <row r="20" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>73</v>
@@ -1623,7 +1843,184 @@
         <v>38</v>
       </c>
     </row>
+    <row r="31" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/后/api.xlsx
+++ b/后/api.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="179">
   <si>
     <t>地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -641,7 +641,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品名称/商品描述/价格/库存/系列</t>
+    <t>商品删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deluser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delproduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品更新3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回类型json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：请求地址以/api/ 开头，比如第一个实际地址为/api/gethot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main/big/intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主图/大图/详情图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addproduct</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -649,75 +713,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品更新2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>种类，可选{light,game,Thinkpad}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deluser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delproduct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品更新3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uploadimage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回类型json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：请求地址以/api/ 开头，比如第一个实际地址为/api/gethot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main/big/intro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主图/大图/详情图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台管理</t>
+    <t>pname/pdesp/price/kucun/type/kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称/商品描述/价格/库存/系列/种类，可选{light,game,Thinkpad}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateimage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -860,6 +864,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -875,8 +881,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1185,7 +1189,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="960" topLeftCell="A27" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1201,11 +1205,11 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1845,11 +1849,11 @@
     </row>
     <row r="31" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1864,14 +1868,14 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>138</v>
@@ -1881,14 +1885,14 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="7"/>
+      <c r="H33" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1905,25 +1909,35 @@
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="6" t="s">
         <v>143</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>145</v>
       </c>
       <c r="J34" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="6" t="s">
         <v>144</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -1932,7 +1946,7 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="7" t="s">
         <v>150</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1942,14 +1956,14 @@
         <v>157</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="6" t="s">
         <v>147</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -1960,59 +1974,44 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>160</v>
+      <c r="A37" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>169</v>
+      <c r="A38" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>

--- a/后/api.xlsx
+++ b/后/api.xlsx
@@ -685,14 +685,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>main/big/intro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主图/大图/详情图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后台管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -709,19 +701,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pname/pdesp/price/kucun/type/kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pname/pdesp/price/kucun/type/kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称/商品描述/价格/库存/系列/种类，可选{light,game,Thinkpad}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>updateimage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pname/pdesp/peizhi/price/kucun/type/kind/pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pname/pdesp/peizhi/price/kucun/type/kind/pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称/商品描述/商品配置/价格/库存/系列/种类，可选{light,game,Thinkpad}/商品pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main/big/intro/pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主图/大图/详情图/商品的pid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,21 +857,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -879,6 +872,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1185,11 +1181,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="960" topLeftCell="A27" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:F38"/>
+      <pane ySplit="960" topLeftCell="A18" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1205,11 +1201,11 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1849,11 +1845,11 @@
     </row>
     <row r="31" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>140</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1867,8 +1863,8 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1885,14 +1881,9 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+    </row>
+    <row r="34" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>152</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1909,44 +1900,42 @@
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>175</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="I35" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>150</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1956,44 +1945,51 @@
         <v>157</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="I36" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="I37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2011,13 +2007,13 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="I34:K34"/>
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/后/api.xlsx
+++ b/后/api.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="178">
   <si>
     <t>地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -629,14 +629,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status/recvname/phone/detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单状态/收货人姓名/手机号/详细地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>updateproduct</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -701,10 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>updateimage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pname/pdesp/peizhi/price/kucun/type/kind/pid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -722,6 +710,14 @@
   </si>
   <si>
     <t>主图/大图/详情图/商品的pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status/recvname/phone/detail/orid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态/收货人姓名/手机号/详细地址/订单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,6 +861,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -872,9 +871,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1184,8 +1180,8 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="960" topLeftCell="A18" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <pane ySplit="960" topLeftCell="A21" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1201,11 +1197,11 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1845,7 +1841,7 @@
     </row>
     <row r="31" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1871,7 +1867,7 @@
         <v>137</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>138</v>
@@ -1893,34 +1889,34 @@
         <v>154</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="I34" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
+      <c r="I34" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1931,7 +1927,7 @@
         <v>145</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1942,13 +1938,13 @@
         <v>151</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1962,19 +1958,19 @@
     </row>
     <row r="37" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1990,19 +1986,19 @@
     </row>
     <row r="38" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
